--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3602076.307321499</v>
+        <v>3709152.166129023</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7626514.81461228</v>
+        <v>7603803.54771037</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>33.32551853541104</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>279.2324253104719</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>120.3332554667404</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>204.0956515831602</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>54.67418615252865</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>163.5358524338113</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>191.3858275024598</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>162.0970416716749</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.98109650522522</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>42.94676783478737</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.61103032834314</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>193.7503532916238</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>119.4566717128377</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>56.45752097953178</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>155.1980648094028</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>147.0792452528027</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>134.9967644582763</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>140.7944235414525</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>140.176011444184</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352489</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>98.95095262166215</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>164.130383082323</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1234.787393074839</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="C2" t="n">
-        <v>865.8248761344269</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D2" t="n">
-        <v>507.5591775276764</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E2" t="n">
-        <v>507.5591775276764</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>96.57327273806879</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>84.90892650276173</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>84.90892650276173</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1570.943217988171</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>1570.943217988171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.787393074839</v>
+        <v>1570.943217988171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>560.1394111735141</v>
@@ -4425,7 +4427,7 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>1399.844418074568</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>1230.908235146661</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>1230.908235146661</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1514.8973771788</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.8973771788</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="U4" t="n">
-        <v>1225.779039682638</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="V4" t="n">
-        <v>971.0945514767509</v>
+        <v>2008.442685869711</v>
       </c>
       <c r="W4" t="n">
-        <v>681.6773814397902</v>
+        <v>2008.442685869711</v>
       </c>
       <c r="X4" t="n">
-        <v>453.6878305417729</v>
+        <v>1802.285462048337</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>1581.492882904807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>125.0830842116335</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>125.0830842116335</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3160.418091878048</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>3160.418091878048</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2807.649436607934</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1452.459188993594</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1197.774700787707</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>908.3575307507468</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X7" t="n">
-        <v>680.3679798527295</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>536.9083323241252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.300932605789</v>
+        <v>1936.747355174407</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.300932605789</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D8" t="n">
-        <v>817.0352339990388</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>431.2469814007946</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2310.213113435487</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1936.747355174407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1936.747355174407</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>741.3618240796766</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>572.4256411517697</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>422.3090017394339</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>274.3959081570408</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>274.3959081570408</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>106.4094434653194</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>106.4094434653194</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X10" t="n">
-        <v>616.8662539883463</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.0736748448162</v>
+        <v>741.3618240796766</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,10 +5062,10 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5072,13 +5074,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397182</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5768,19 +5770,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5789,13 +5791,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>3112.53743214738</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>2943.601249219473</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449245</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G22" t="n">
-        <v>210.4595134598044</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>3850.736732225888</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>3561.319562188927</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>3333.33001129091</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>3112.53743214738</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2567.280686761778</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2310.602715440587</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2091.001250463528</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>4186.248126100013</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1902.290194822295</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,19 +6788,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3355.249510984192</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7266,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213312</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247062</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796382</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729352</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176795</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719453</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337794</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229214</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.920990213811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519665</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081896</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7493,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
         <v>1344.266747951538</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
         <v>779.6143379232838</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2160.315914855604</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.7511347056859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9416,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.12798163925713</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>169.2521344095054</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>105.0583980710253</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.0295215433683</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>75.37549921168775</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>145.3900508477916</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>126.758702767375</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.11201973523735</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>15.70159709961425</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>664152.7434715746</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>664152.7434715746</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321529</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.81069968622</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808328</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808327</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26433,31 +26435,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732009</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426732029</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>16108.17168982544</v>
-      </c>
       <c r="L4" t="n">
-        <v>16108.17168982543</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982544</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982544</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982544</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065585</v>
+        <v>-562017.8749065584</v>
       </c>
       <c r="C6" t="n">
-        <v>381312.6519994866</v>
+        <v>552733.9086693613</v>
       </c>
       <c r="D6" t="n">
-        <v>584751.3936115925</v>
+        <v>552733.9086693609</v>
       </c>
       <c r="E6" t="n">
-        <v>332136.9656475114</v>
+        <v>150063.9858303203</v>
       </c>
       <c r="F6" t="n">
+        <v>657549.4274548673</v>
+      </c>
+      <c r="G6" t="n">
+        <v>657549.4274548672</v>
+      </c>
+      <c r="H6" t="n">
         <v>657549.4274548667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>657549.4274548668</v>
-      </c>
-      <c r="H6" t="n">
-        <v>657549.4274548671</v>
       </c>
       <c r="I6" t="n">
         <v>657549.4274548669</v>
       </c>
       <c r="J6" t="n">
-        <v>489944.2496448844</v>
+        <v>489944.249644884</v>
       </c>
       <c r="K6" t="n">
-        <v>592179.5831276423</v>
+        <v>657549.4274548671</v>
       </c>
       <c r="L6" t="n">
-        <v>660717.3938273288</v>
+        <v>657549.4274548669</v>
       </c>
       <c r="M6" t="n">
-        <v>575662.3658918168</v>
+        <v>524942.1337259401</v>
       </c>
       <c r="N6" t="n">
-        <v>660717.3938273287</v>
+        <v>657549.4274548667</v>
       </c>
       <c r="O6" t="n">
-        <v>660717.3938273286</v>
+        <v>657549.4274548668</v>
       </c>
       <c r="P6" t="n">
-        <v>657549.4274548666</v>
+        <v>657549.4274548671</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32.38439413705946</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>70.0085434069411</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>74.32920489499705</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>21.61400380587699</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>327.2561839197331</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.45931952509068</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>94.82601070315312</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>63.61261371736222</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>392.8949492364862</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>306.2942008826257</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>50.18556487555744</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>31.95930209741334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29095,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,16 +32083,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32312,31 +32314,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359103</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>428.6149474293397</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33023,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>173.3851399586646</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>316.3386309491707</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>446.1502447085393</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>235.501032152577</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>290.0605676494656</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>31.25110603664623</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3709152.166129023</v>
+        <v>3705015.008878872</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>356.4810155875353</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>279.2324253104719</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>197.2597383356321</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0956515831602</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>54.67418615252865</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>250.8887958821878</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>162.0970416716749</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>20.31049845697554</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>42.94676783478737</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>54.61103032834314</v>
+        <v>23.94563726208598</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.4566717128377</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>56.45752097953178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>155.1980648094028</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23.62554568141267</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>97.75513637220199</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>147.0792452528027</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833816</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>211.1474991249032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>140.7944235414525</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>140.176011444184</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>98.95095262166215</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>115.2302178375793</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>40.15381658332819</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.90335196317894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.130383082323</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.34337792405</v>
+        <v>1257.650691388937</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.34337792405</v>
+        <v>888.6881744485256</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>888.6881744485256</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>888.6881744485256</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>477.7022696589181</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.943217988171</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1570.943217988171</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1570.943217988171</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.844418074568</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>1230.908235146661</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>1230.908235146661</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1082.995141564268</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075598</v>
+        <v>1437.193859129414</v>
       </c>
       <c r="V4" t="n">
-        <v>2008.442685869711</v>
+        <v>1182.509370923527</v>
       </c>
       <c r="W4" t="n">
-        <v>2008.442685869711</v>
+        <v>893.0922008865665</v>
       </c>
       <c r="X4" t="n">
-        <v>1802.285462048337</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1581.492882904807</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>494.0456011520452</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>125.0830842116335</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D5" t="n">
-        <v>125.0830842116335</v>
+        <v>768.4960607092901</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>382.7078081110458</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.645441216167</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>551.602574876695</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081667</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.9083323241252</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962184</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880302</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>700.6427178510696</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>536.9083323241252</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>536.9083323241252</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1936.747355174407</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.823673393109</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="W8" t="n">
-        <v>2310.213113435487</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X8" t="n">
-        <v>1936.747355174407</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.747355174407</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>845.9911918222188</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.3618240796766</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>572.4256411517697</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>422.3090017394339</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>274.3959081570408</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>274.3959081570408</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
-        <v>106.4094434653194</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H10" t="n">
-        <v>106.4094434653194</v>
+        <v>75.43429895394854</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232067</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>962.1544032232067</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>962.1544032232067</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>741.3618240796766</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5065,13 +5065,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159286</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579752</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>397.4723325755821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>250.5823850776717</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3112.53743214738</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C22" t="n">
-        <v>2943.601249219473</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>2793.484609807138</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V22" t="n">
-        <v>3850.736732225888</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W22" t="n">
-        <v>3561.319562188927</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X22" t="n">
-        <v>3333.33001129091</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y22" t="n">
-        <v>3112.53743214738</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="23">
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590557</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2567.280686761778</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>2854.440648734749</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.440648734749</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6129,22 +6129,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>4440.9326143059</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>4186.248126100013</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6788,19 +6788,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049275</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925917</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3355.249510984192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984192</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7268,7 +7268,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>449.4852666057155</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E40" t="n">
-        <v>301.5721730233224</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>301.5721730233224</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>134.3760737382024</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>134.3760737382024</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.6143379232838</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>255.8421700460954</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.7511347056859</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>54.95314511566539</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.12798163925713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>169.2521344095054</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>83.2711496294426</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>105.0583980710253</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788572</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>75.37549921168775</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>145.3900508477916</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>6.257951202385129</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>126.758702767375</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>31.20374480898987</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.11201973523735</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,7 +25803,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.70159709961425</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>671283.0564728596</v>
+        <v>671283.0564728597</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653036.6073321529</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>779989.6813710697</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732013</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26435,13 +26435,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065584</v>
+        <v>-562017.8749065587</v>
       </c>
       <c r="C6" t="n">
-        <v>552733.9086693613</v>
+        <v>552733.9086693611</v>
       </c>
       <c r="D6" t="n">
-        <v>552733.9086693609</v>
+        <v>552733.9086693614</v>
       </c>
       <c r="E6" t="n">
-        <v>150063.9858303203</v>
+        <v>149716.606575964</v>
       </c>
       <c r="F6" t="n">
-        <v>657549.4274548673</v>
+        <v>657202.0482005101</v>
       </c>
       <c r="G6" t="n">
-        <v>657549.4274548672</v>
+        <v>657202.0482005099</v>
       </c>
       <c r="H6" t="n">
-        <v>657549.4274548667</v>
+        <v>657202.0482005101</v>
       </c>
       <c r="I6" t="n">
-        <v>657549.4274548669</v>
+        <v>657202.0482005097</v>
       </c>
       <c r="J6" t="n">
-        <v>489944.249644884</v>
+        <v>489596.8703905274</v>
       </c>
       <c r="K6" t="n">
-        <v>657549.4274548671</v>
+        <v>657202.04820051</v>
       </c>
       <c r="L6" t="n">
-        <v>657549.4274548669</v>
+        <v>657202.0482005099</v>
       </c>
       <c r="M6" t="n">
-        <v>524942.1337259401</v>
+        <v>524594.7544715832</v>
       </c>
       <c r="N6" t="n">
-        <v>657549.4274548667</v>
+        <v>657202.0482005096</v>
       </c>
       <c r="O6" t="n">
-        <v>657549.4274548668</v>
+        <v>657202.0482005099</v>
       </c>
       <c r="P6" t="n">
-        <v>657549.4274548671</v>
+        <v>657202.0482005099</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996096</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996099</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.584832100039</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>55.06668718541869</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>70.0085434069411</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>88.96741578556848</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>21.61400380587699</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>327.2561839197331</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>155.9872498595236</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>63.61261371736222</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>103.1417169418188</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>306.2942008826257</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.18556487555744</v>
+        <v>80.8509579418146</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>366.8427442359103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,16 +32788,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
-        <v>428.6149474293397</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32955,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34780,25 +34780,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>316.3386309491707</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>427.1133740445987</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>446.1502447085393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>245.9177694853266</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>235.501032152577</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
-        <v>290.0605676494656</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36691,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3705015.008878872</v>
+        <v>3706775.539181658</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7603803.54771037</v>
+        <v>7603803.547710369</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>356.4810155875353</v>
+        <v>31.49478069649109</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.2597383356321</v>
+        <v>17.42775815369515</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>250.8887958821878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>49.83235651299656</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.31049845697554</v>
+        <v>20.31049845697735</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>42.5313457611372</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23.62554568141267</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>97.75513637220199</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>115.2302178375793</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9507379795604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.650691388937</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="C2" t="n">
-        <v>888.6881744485256</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="D2" t="n">
-        <v>888.6881744485256</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="E2" t="n">
-        <v>888.6881744485256</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="F2" t="n">
-        <v>477.7022696589181</v>
+        <v>83.05969636243856</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4372,10 +4372,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,22 +4409,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4488,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.193859129414</v>
+        <v>1618.842323959654</v>
       </c>
       <c r="V4" t="n">
-        <v>1182.509370923527</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="W4" t="n">
-        <v>893.0922008865665</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X4" t="n">
-        <v>665.1026499885492</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.761759316041</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.761759316041</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>768.4960607092901</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>382.7078081110458</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2512.003614750665</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2512.003614750665</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2258.422554014845</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1927.359666671274</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1574.59101140116</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1201.12525314008</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4789,46 +4789,46 @@
         <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
         <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
         <v>2541.823673393109</v>
@@ -4880,19 +4880,19 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>551.287634790746</v>
       </c>
       <c r="L9" t="n">
-        <v>845.9911918222188</v>
+        <v>845.9911918222178</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1209.253210781438</v>
       </c>
       <c r="N9" t="n">
         <v>1843.432194560477</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904424</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>75.43429895394854</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>527.7722521572603</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,16 +5360,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5834,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2281.17481784054</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2061.573352863481</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,49 +5983,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460954</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>129.4330134067472</v>
       </c>
       <c r="L9" t="n">
-        <v>129.4330134067486</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>116.6691671648112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>83.2711496294426</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>31.20374480898987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>671283.0564728597</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>671283.0564728597</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426732013</v>
@@ -26438,7 +26438,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732029</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065587</v>
+        <v>-562017.8749065589</v>
       </c>
       <c r="C6" t="n">
         <v>552733.9086693611</v>
       </c>
       <c r="D6" t="n">
-        <v>552733.9086693614</v>
+        <v>552733.908669361</v>
       </c>
       <c r="E6" t="n">
-        <v>149716.606575964</v>
+        <v>150029.2479048858</v>
       </c>
       <c r="F6" t="n">
-        <v>657202.0482005101</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="G6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="H6" t="n">
-        <v>657202.0482005101</v>
+        <v>657514.6895294311</v>
       </c>
       <c r="I6" t="n">
-        <v>657202.0482005097</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="J6" t="n">
-        <v>489596.8703905274</v>
+        <v>489909.5117194485</v>
       </c>
       <c r="K6" t="n">
-        <v>657202.04820051</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="L6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294311</v>
       </c>
       <c r="M6" t="n">
-        <v>524594.7544715832</v>
+        <v>524907.3958005044</v>
       </c>
       <c r="N6" t="n">
-        <v>657202.0482005096</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="O6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="P6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294313</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55.06668718541869</v>
+        <v>380.0529220764629</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>88.96741578556848</v>
+        <v>268.7993959675055</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>155.9872498595236</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>73.61985888579778</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.1417169418188</v>
+        <v>103.141716941817</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>50.57682429414508</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,13 +28098,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422184</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502322</v>
       </c>
       <c r="L9" t="n">
-        <v>427.1133740445987</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
